--- a/biology/Zoologie/Barraina_anfracta/Barraina_anfracta.xlsx
+++ b/biology/Zoologie/Barraina_anfracta/Barraina_anfracta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barraina anfracta est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barraina anfracta est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre du cap Tribulation au mont Spec[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre du cap Tribulation au mont Spec.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1,5 mm de long sur 1,2 mm et l'abdomen 1,2 mm de long et la carapace de la femelle paratype mesure 1,4 mm de long sur 1,0 mm et l'abdomen 1,5 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1,5 mm de long sur 1,2 mm et l'abdomen 1,2 mm de long et la carapace de la femelle paratype mesure 1,4 mm de long sur 1,0 mm et l'abdomen 1,5 mm de long.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Richardson en 2013.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Richardson, 2013 : « New unidentate jumping spider genera (Araneae: Salticidae) from Australia. » Zootaxa, no 3716 (3), p. 460-474.</t>
         </is>
